--- a/31.분석/네이버전문분석.xlsx
+++ b/31.분석/네이버전문분석.xlsx
@@ -20,6 +20,7 @@
     <sheet name="단지_매물목록" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
